--- a/bin/xlsx/全局配置表.xlsx
+++ b/bin/xlsx/全局配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全局配置" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,22 +28,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FLOAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>price_factor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>价格系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +108,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -175,6 +183,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -210,6 +235,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,44 +427,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="E2">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
+      <c r="E3">
         <v>1.5</v>
       </c>
     </row>

--- a/bin/xlsx/全局配置表.xlsx
+++ b/bin/xlsx/全局配置表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,10 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +435,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -449,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1">
         <v>0</v>
